--- a/public/院感工作自查表.xlsx
+++ b/public/院感工作自查表.xlsx
@@ -27,16 +27,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>院感工作自查表（科室/区域周自查）</t>
+      <t>院感工作自查表（科室自查）</t>
     </r>
     <r>
       <rPr>
@@ -176,249 +170,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>​</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>​</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>周一</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>​</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>​</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>​</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>​</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>周二</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>​</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>​</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>​</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>​</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>周三</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>​</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>​</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>​</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>​</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>周四</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>​</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>​</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>​</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>​</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>周五</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>​</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>​</t>
-    </r>
+    <t>检查结果</t>
   </si>
   <si>
     <t>手卫生依从性</t>
@@ -874,7 +626,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -896,17 +648,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -1052,7 +793,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1064,34 +805,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1189,16 +930,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1728,162 +1469,98 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="37.875" customWidth="1"/>
-    <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="7" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="41.875" customWidth="1"/>
+    <col min="2" max="2" width="55.375" customWidth="1"/>
+    <col min="3" max="3" width="57.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="50" customHeight="1" spans="1:7">
+    <row r="1" ht="50" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
     </row>
-    <row r="2" ht="50" customHeight="1" spans="1:7">
+    <row r="2" ht="50" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
     </row>
-    <row r="3" ht="50" customHeight="1" spans="1:7">
-      <c r="A3" s="5" t="s">
+    <row r="3" ht="50" customHeight="1" spans="1:3">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+    </row>
+    <row r="4" ht="50" customHeight="1" spans="1:3">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" ht="50" customHeight="1" spans="1:3">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" ht="50" customHeight="1" spans="1:7">
-      <c r="A4" s="6" t="s">
+    <row r="6" ht="50" customHeight="1" spans="1:3">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
     </row>
-    <row r="5" ht="50" customHeight="1" spans="1:7">
-      <c r="A5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    <row r="7" ht="50" customHeight="1" spans="1:3">
+      <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>13</v>
+      <c r="C7" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="6" ht="50" customHeight="1" spans="1:7">
-      <c r="A6" s="6" t="s">
+    <row r="8" ht="45" customHeight="1" spans="1:3">
+      <c r="A8" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" ht="50" customHeight="1" spans="1:7">
-      <c r="A7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" ht="45" customHeight="1" spans="1:7">
-      <c r="A8" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.298611111111111" footer="0.298611111111111"/>
   <pageSetup paperSize="11" scale="65" fitToHeight="0" orientation="landscape"/>
